--- a/game_excel/carnival.xlsx
+++ b/game_excel/carnival.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Carnival" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D7"/>
+      <selection activeCell="B6" sqref="B6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -519,36 +519,36 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
